--- a/dataset/result/tiedK_lang.xlsx
+++ b/dataset/result/tiedK_lang.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,25 +506,25 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>880</v>
+        <v>597</v>
       </c>
       <c r="H2" t="n">
-        <v>104</v>
+        <v>387</v>
       </c>
       <c r="I2" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06306306306306306</v>
+        <v>0.06971153846153846</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1320754716981132</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08536585365853659</v>
+        <v>0.1236673773987207</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -550,25 +550,25 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G3" t="n">
-        <v>8839</v>
+        <v>6009</v>
       </c>
       <c r="H3" t="n">
-        <v>199</v>
+        <v>3029</v>
       </c>
       <c r="I3" t="n">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02450980392156863</v>
+        <v>0.01399739583333333</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03968253968253968</v>
+        <v>0.3412698412698413</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02689180737961226</v>
       </c>
     </row>
     <row r="4">
@@ -579,40 +579,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>smote</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>17637</v>
+        <v>576</v>
       </c>
       <c r="H4" t="n">
-        <v>345</v>
+        <v>408</v>
       </c>
       <c r="I4" t="n">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01988636363636364</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0280561122244489</v>
+        <v>0.106776180698152</v>
       </c>
     </row>
     <row r="5">
@@ -623,7 +623,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -632,31 +632,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G5" t="n">
-        <v>281</v>
+        <v>5537</v>
       </c>
       <c r="H5" t="n">
-        <v>703</v>
+        <v>3501</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0563758389261745</v>
+        <v>0.01850294365012616</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7924528301886793</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.03574329813160033</v>
       </c>
     </row>
     <row r="6">
@@ -667,40 +667,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>smote</t>
+          <t>over</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>2395</v>
+        <v>634</v>
       </c>
       <c r="H6" t="n">
-        <v>6643</v>
+        <v>350</v>
       </c>
       <c r="I6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01468407000889944</v>
+        <v>0.07161803713527852</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02882935352358765</v>
+        <v>0.1255813953488372</v>
       </c>
     </row>
     <row r="7">
@@ -711,40 +711,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>smote</t>
+          <t>over</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="G7" t="n">
-        <v>5172</v>
+        <v>6073</v>
       </c>
       <c r="H7" t="n">
-        <v>12810</v>
+        <v>2965</v>
       </c>
       <c r="I7" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="J7" t="n">
-        <v>0.009050823857043398</v>
+        <v>0.01690981432360743</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7959183673469388</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01789811840293713</v>
+        <v>0.03246339910884787</v>
       </c>
     </row>
     <row r="8">
@@ -755,12 +755,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>under</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -770,25 +770,25 @@
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>758</v>
+        <v>457</v>
       </c>
       <c r="H8" t="n">
-        <v>226</v>
+        <v>527</v>
       </c>
       <c r="I8" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07377049180327869</v>
+        <v>0.04701627486437613</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3396226415094339</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.08580858085808581</v>
       </c>
     </row>
     <row r="9">
@@ -799,12 +799,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>under</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -814,25 +814,25 @@
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="G9" t="n">
-        <v>7163</v>
+        <v>3183</v>
       </c>
       <c r="H9" t="n">
-        <v>1875</v>
+        <v>5855</v>
       </c>
       <c r="I9" t="n">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01729559748427673</v>
+        <v>0.01430976430976431</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2619047619047619</v>
+        <v>0.6746031746031746</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03244837758112094</v>
+        <v>0.0280250576986482</v>
       </c>
     </row>
     <row r="10">
@@ -848,35 +848,35 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>none</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>14545</v>
+        <v>816</v>
       </c>
       <c r="H10" t="n">
-        <v>3437</v>
+        <v>168</v>
       </c>
       <c r="I10" t="n">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01093525179856115</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2585034013605442</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02098288238542242</v>
+        <v>0.0782608695652174</v>
       </c>
     </row>
     <row r="11">
@@ -892,35 +892,35 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>under</t>
+          <t>none</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>739</v>
+        <v>8397</v>
       </c>
       <c r="H11" t="n">
-        <v>245</v>
+        <v>641</v>
       </c>
       <c r="I11" t="n">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.007739938080495356</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2830188679245283</v>
+        <v>0.03968253968253968</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09584664536741214</v>
+        <v>0.01295336787564767</v>
       </c>
     </row>
     <row r="12">
@@ -936,35 +936,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>under</t>
+          <t>smote</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" t="n">
-        <v>7012</v>
+        <v>340</v>
       </c>
       <c r="H12" t="n">
-        <v>2026</v>
+        <v>644</v>
       </c>
       <c r="I12" t="n">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01745877788554801</v>
+        <v>0.05433186490455213</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03290676416819013</v>
+        <v>0.1008174386920981</v>
       </c>
     </row>
     <row r="13">
@@ -980,35 +980,1267 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>78</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2484</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6554</v>
+      </c>
+      <c r="I13" t="n">
+        <v>48</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01176115802171291</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.02308375258952353</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>23</v>
+      </c>
+      <c r="G14" t="n">
+        <v>604</v>
+      </c>
+      <c r="H14" t="n">
+        <v>380</v>
+      </c>
+      <c r="I14" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.05707196029776675</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.4339622641509434</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1008771929824561</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>69</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3018</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6020</v>
+      </c>
+      <c r="I15" t="n">
+        <v>57</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0113319100016423</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.5476190476190477</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.02220434432823813</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>under</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>26</v>
+      </c>
+      <c r="G16" t="n">
+        <v>542</v>
+      </c>
+      <c r="H16" t="n">
+        <v>442</v>
+      </c>
+      <c r="I16" t="n">
+        <v>27</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4905660377358491</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.09980806142034548</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>63</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3059</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5979</v>
+      </c>
+      <c r="I17" t="n">
+        <v>63</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01042701092353525</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.02042801556420233</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>14</v>
+      </c>
+      <c r="G18" t="n">
+        <v>776</v>
+      </c>
+      <c r="H18" t="n">
+        <v>208</v>
+      </c>
+      <c r="I18" t="n">
+        <v>39</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.06306306306306306</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2641509433962264</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.1018181818181818</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8175</v>
+      </c>
+      <c r="H19" t="n">
+        <v>863</v>
+      </c>
+      <c r="I19" t="n">
+        <v>114</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.01371428571428571</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.02397602397602398</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>35</v>
+      </c>
+      <c r="G20" t="n">
+        <v>498</v>
+      </c>
+      <c r="H20" t="n">
+        <v>486</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0671785028790787</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.660377358490566</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.1219512195121951</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>63</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4403</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4635</v>
+      </c>
+      <c r="I21" t="n">
+        <v>63</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01340996168582376</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.02611940298507463</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>29</v>
+      </c>
+      <c r="G22" t="n">
+        <v>503</v>
+      </c>
+      <c r="H22" t="n">
+        <v>481</v>
+      </c>
+      <c r="I22" t="n">
+        <v>24</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.05686274509803921</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5471698113207547</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.1030195381882771</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>55</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4744</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4294</v>
+      </c>
+      <c r="I23" t="n">
+        <v>71</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.01264658542193608</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4365079365079365</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.02458100558659218</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>33</v>
+      </c>
+      <c r="G24" t="n">
+        <v>446</v>
+      </c>
+      <c r="H24" t="n">
+        <v>538</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.05779334500875657</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.6226415094339622</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.1057692307692308</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>72</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3347</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5691</v>
+      </c>
+      <c r="I25" t="n">
+        <v>54</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0124934929724102</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.02445236882322975</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>17</v>
+      </c>
+      <c r="G26" t="n">
+        <v>690</v>
+      </c>
+      <c r="H26" t="n">
+        <v>294</v>
+      </c>
+      <c r="I26" t="n">
+        <v>36</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.05466237942122187</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3207547169811321</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.09340659340659341</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>37</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6912</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2126</v>
+      </c>
+      <c r="I27" t="n">
+        <v>89</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.01710587147480351</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.2936507936507937</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.03232852774137178</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>25</v>
+      </c>
+      <c r="G28" t="n">
+        <v>576</v>
+      </c>
+      <c r="H28" t="n">
+        <v>408</v>
+      </c>
+      <c r="I28" t="n">
+        <v>28</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.05773672055427252</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.102880658436214</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>61</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5459</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3579</v>
+      </c>
+      <c r="I29" t="n">
+        <v>65</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.01675824175824176</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.4841269841269841</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0323951141795008</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>24</v>
+      </c>
+      <c r="G30" t="n">
+        <v>634</v>
+      </c>
+      <c r="H30" t="n">
+        <v>350</v>
+      </c>
+      <c r="I30" t="n">
+        <v>29</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.06417112299465241</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.4528301886792453</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.1124121779859485</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>52</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6176</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2862</v>
+      </c>
+      <c r="I31" t="n">
+        <v>74</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0178448867536033</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.4126984126984127</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.03421052631578948</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>36</v>
+      </c>
+      <c r="G32" t="n">
+        <v>475</v>
+      </c>
+      <c r="H32" t="n">
+        <v>509</v>
+      </c>
+      <c r="I32" t="n">
+        <v>17</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.06605504587155964</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.6792452830188679</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.1204013377926421</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>88</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2791</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6247</v>
+      </c>
+      <c r="I33" t="n">
+        <v>38</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.01389108129439621</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.02724036526853428</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>979</v>
+      </c>
+      <c r="H34" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" t="n">
-        <v>45</v>
-      </c>
-      <c r="G13" t="n">
-        <v>14272</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3710</v>
-      </c>
-      <c r="I13" t="n">
-        <v>102</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.01198402130492676</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.3061224489795918</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.0230650948231676</v>
+      <c r="I34" t="n">
+        <v>53</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9038</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>126</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>31</v>
+      </c>
+      <c r="G36" t="n">
+        <v>415</v>
+      </c>
+      <c r="H36" t="n">
+        <v>569</v>
+      </c>
+      <c r="I36" t="n">
+        <v>22</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.05166666666666667</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.5849056603773585</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.09494640122511486</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>68</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2918</v>
+      </c>
+      <c r="H37" t="n">
+        <v>6120</v>
+      </c>
+      <c r="I37" t="n">
+        <v>58</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.01098901098901099</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.5396825396825397</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.02153943617358252</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>26</v>
+      </c>
+      <c r="G38" t="n">
+        <v>451</v>
+      </c>
+      <c r="H38" t="n">
+        <v>533</v>
+      </c>
+      <c r="I38" t="n">
+        <v>27</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.04651162790697674</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.4905660377358491</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.08496732026143791</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>67</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3148</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5890</v>
+      </c>
+      <c r="I39" t="n">
+        <v>59</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.01124727211683733</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5317460317460317</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.02202860430708532</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>32</v>
+      </c>
+      <c r="G40" t="n">
+        <v>389</v>
+      </c>
+      <c r="H40" t="n">
+        <v>595</v>
+      </c>
+      <c r="I40" t="n">
+        <v>21</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.05103668261562998</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.6037735849056604</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.09411764705882353</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>lang</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>69</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2885</v>
+      </c>
+      <c r="H41" t="n">
+        <v>6153</v>
+      </c>
+      <c r="I41" t="n">
+        <v>57</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.01108968177434908</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5476190476190477</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.02173913043478261</v>
       </c>
     </row>
   </sheetData>
